--- a/data/output/tables/inversiones.xlsx
+++ b/data/output/tables/inversiones.xlsx
@@ -22,19 +22,19 @@
     <t>test_rmse</t>
   </si>
   <si>
+    <t>lr</t>
+  </si>
+  <si>
     <t>ar</t>
   </si>
   <si>
-    <t>lr</t>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>knn</t>
   </si>
   <si>
     <t>arima</t>
-  </si>
-  <si>
-    <t>knn</t>
-  </si>
-  <si>
-    <t>rf</t>
   </si>
   <si>
     <t>xgb</t>
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1112.350482220995</v>
+        <v>1276.231126439565</v>
       </c>
       <c r="C2">
-        <v>1023.853012298793</v>
+        <v>1796.857510444471</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1208.885157006372</v>
+        <v>1156.542049516106</v>
       </c>
       <c r="C3">
-        <v>1394.423897181566</v>
+        <v>2287.91975731292</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1776.564438114601</v>
+        <v>814.9568531785991</v>
       </c>
       <c r="C4">
-        <v>2772.766793158337</v>
+        <v>3143.976907195107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1109.305708681085</v>
       </c>
       <c r="C5">
-        <v>3202.265071267658</v>
+        <v>3350.361212221492</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>850.6393993676204</v>
+        <v>1503.786665434141</v>
       </c>
       <c r="C6">
-        <v>4129.116730072998</v>
+        <v>5727.065307772839</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1680.57529352013</v>
+        <v>1965.667458246779</v>
       </c>
       <c r="C7">
-        <v>6964.352499704709</v>
+        <v>7744.937264065793</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>23283.28303217693</v>
+        <v>22096.06646683124</v>
       </c>
       <c r="C8">
-        <v>33165.88407092251</v>
+        <v>32953.10354660437</v>
       </c>
     </row>
   </sheetData>
